--- a/result/result_Bamboo.xlsx
+++ b/result/result_Bamboo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="71">
   <si>
     <t>Year</t>
   </si>
@@ -224,10 +224,6 @@
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type_near2nd*</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -307,6 +303,19 @@
   </si>
   <si>
     <t>&lt;190</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type_near2nd*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type_near2nd
+不分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排除掉C37-05後的闊葉林</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -437,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -502,6 +511,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1750,6 +1765,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1924,6 +1940,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1990,6 +2007,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3552,15 +3570,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>186690</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4048,8 +4066,8 @@
   </sheetPr>
   <dimension ref="A2:AG48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P49" sqref="P49"/>
+    <sheetView tabSelected="1" topLeftCell="I20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V39" sqref="V39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -4067,6 +4085,8 @@
     <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="1.125" customWidth="1"/>
     <col min="13" max="13" width="16.25" customWidth="1"/>
+    <col min="15" max="15" width="13.875" customWidth="1"/>
+    <col min="16" max="16" width="11.125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.625" customWidth="1"/>
     <col min="19" max="19" width="15.75" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.5" customWidth="1"/>
@@ -4080,20 +4100,23 @@
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
       <c r="I2" s="21"/>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="30"/>
+      <c r="K2" s="32"/>
       <c r="L2" s="21"/>
       <c r="M2" s="20" t="s">
         <v>32</v>
       </c>
+      <c r="P2" s="30" t="s">
+        <v>70</v>
+      </c>
       <c r="S2" s="7" t="s">
         <v>50</v>
       </c>
@@ -4113,7 +4136,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
@@ -4131,22 +4154,23 @@
         <v>48</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I3" s="28"/>
       <c r="J3" s="28" t="s">
         <v>33</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L3" s="27"/>
       <c r="M3" s="28" t="s">
-        <v>61</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P3" s="30"/>
       <c r="S3" s="1" t="s">
         <v>9</v>
       </c>
@@ -4244,6 +4268,10 @@
       <c r="M5" s="24">
         <v>6.6382604975110571</v>
       </c>
+      <c r="P5">
+        <f t="shared" ref="P4:P34" si="0">SUMIFS(K5,J5,"闊葉樹林型")</f>
+        <v>6.6382604975110571</v>
+      </c>
       <c r="S5" s="7" t="s">
         <v>33</v>
       </c>
@@ -4411,6 +4439,10 @@
       </c>
       <c r="L8" s="24"/>
       <c r="M8" s="24">
+        <v>6.6382604975110571</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
         <v>6.6382604975110571</v>
       </c>
       <c r="W8" s="8"/>
@@ -4450,6 +4482,10 @@
       <c r="M9" s="24">
         <v>2.9718473121164779</v>
       </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>2.9718473121164779</v>
+      </c>
       <c r="S9" s="7" t="s">
         <v>52</v>
       </c>
@@ -4496,6 +4532,10 @@
       <c r="M10" s="24">
         <v>2.9718473121164779</v>
       </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>2.9718473121164779</v>
+      </c>
       <c r="S10" t="s">
         <v>51</v>
       </c>
@@ -4550,6 +4590,10 @@
       <c r="M11" s="24">
         <v>6.6382604975110571</v>
       </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>6.6382604975110571</v>
+      </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
@@ -4620,6 +4664,10 @@
       <c r="M13" s="24">
         <v>23.875167513483682</v>
       </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>23.875167513483682</v>
+      </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
@@ -4655,6 +4703,10 @@
       <c r="M14" s="24">
         <v>17.039981638631751</v>
       </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>17.039981638631751</v>
+      </c>
     </row>
     <row r="15" spans="1:33" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
@@ -4690,6 +4742,10 @@
       <c r="M15" s="24">
         <v>6.6382604975110571</v>
       </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>6.6382604975110571</v>
+      </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
@@ -4775,6 +4831,10 @@
       <c r="M17" s="24">
         <v>6.6382604975110571</v>
       </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>6.6382604975110571</v>
+      </c>
       <c r="S17" t="s">
         <v>4</v>
       </c>
@@ -4838,6 +4898,10 @@
       </c>
       <c r="L18" s="24"/>
       <c r="M18" s="24">
+        <v>2.9718473121164779</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
         <v>2.9718473121164779</v>
       </c>
       <c r="S18" t="s">
@@ -5029,6 +5093,10 @@
       <c r="M21" s="24">
         <v>8.3492933218957237</v>
       </c>
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>8.3492933218957237</v>
+      </c>
       <c r="S21" t="s">
         <v>10</v>
       </c>
@@ -5151,6 +5219,10 @@
       <c r="M23" s="24">
         <v>6.6382604975110571</v>
       </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>6.6382604975110571</v>
+      </c>
       <c r="S23" t="s">
         <v>12</v>
       </c>
@@ -5210,6 +5282,10 @@
       <c r="M24" s="24">
         <v>6.6382604975110571</v>
       </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>6.6382604975110571</v>
+      </c>
       <c r="S24" t="s">
         <v>12</v>
       </c>
@@ -5456,6 +5532,10 @@
       <c r="M28" s="24">
         <v>8.1306472520736595</v>
       </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>8.1306472520736595</v>
+      </c>
       <c r="S28" t="s">
         <v>12</v>
       </c>
@@ -5512,6 +5592,10 @@
       <c r="M29" s="24">
         <v>186.24894063791359</v>
       </c>
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>186.24894063791359</v>
+      </c>
       <c r="S29" t="s">
         <v>12</v>
       </c>
@@ -5570,6 +5654,10 @@
       </c>
       <c r="L30" s="24"/>
       <c r="M30" s="24">
+        <v>123.09374599311241</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="0"/>
         <v>123.09374599311241</v>
       </c>
       <c r="S30" t="s">
@@ -5628,6 +5716,10 @@
       <c r="M31" s="24">
         <v>282.82020578332532</v>
       </c>
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>282.82020578332532</v>
+      </c>
       <c r="S31" t="s">
         <v>12</v>
       </c>
@@ -5684,6 +5776,10 @@
       <c r="M32" s="24">
         <v>10.27077830930393</v>
       </c>
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>10.27077830930393</v>
+      </c>
       <c r="S32" t="s">
         <v>12</v>
       </c>
@@ -5849,18 +5945,24 @@
     </row>
     <row r="36" spans="1:33" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F36" s="16"/>
-      <c r="G36" s="30" t="s">
+      <c r="G36" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="H36" s="30"/>
+      <c r="H36" s="32"/>
       <c r="I36" s="21"/>
-      <c r="J36" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="K36" s="30"/>
+      <c r="J36" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="K36" s="32"/>
       <c r="L36" s="21"/>
-      <c r="M36" s="31" t="s">
-        <v>65</v>
+      <c r="M36" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="O36" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="P36" s="30" t="s">
+        <v>70</v>
       </c>
       <c r="S36" t="s">
         <v>10</v>
@@ -5875,14 +5977,14 @@
         <v>190</v>
       </c>
       <c r="AB36" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AC36" s="12"/>
       <c r="AD36" s="12">
         <v>1</v>
       </c>
       <c r="AF36" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AG36" s="12">
         <v>1</v>
@@ -5891,20 +5993,22 @@
     <row r="37" spans="1:33" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F37" s="2"/>
       <c r="G37" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H37" s="23" t="s">
         <v>53</v>
       </c>
       <c r="I37" s="22"/>
       <c r="J37" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="K37" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="K37" s="22" t="s">
-        <v>64</v>
-      </c>
       <c r="L37" s="22"/>
-      <c r="M37" s="32"/>
+      <c r="M37" s="34"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="30"/>
       <c r="S37" t="s">
         <v>12</v>
       </c>
@@ -5923,7 +6027,7 @@
         <v>31</v>
       </c>
       <c r="H38" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3">
@@ -5935,6 +6039,10 @@
       <c r="L38" s="3"/>
       <c r="M38" s="29" t="s">
         <v>54</v>
+      </c>
+      <c r="P38">
+        <f>COUNTA(P4:P34)</f>
+        <v>18</v>
       </c>
       <c r="S38" t="s">
         <v>12</v>
@@ -5968,6 +6076,14 @@
       <c r="M39" s="18">
         <v>64.436976551206868</v>
       </c>
+      <c r="O39" s="6">
+        <f>AVERAGE(K4:K34)</f>
+        <v>41.146694391236622</v>
+      </c>
+      <c r="P39" s="6">
+        <f>AVERAGE(P4:P34)</f>
+        <v>39.734006992703719</v>
+      </c>
       <c r="S39" t="s">
         <v>10</v>
       </c>
@@ -5997,6 +6113,14 @@
       <c r="M40" s="18">
         <v>68.659602270252535</v>
       </c>
+      <c r="O40" s="6">
+        <f>_xlfn.STDEV.P(K4:K34)</f>
+        <v>61.020162097617735</v>
+      </c>
+      <c r="P40" s="6">
+        <f>_xlfn.STDEV.P(P4:P32)</f>
+        <v>75.588952799317852</v>
+      </c>
       <c r="S40" t="s">
         <v>10</v>
       </c>
@@ -6026,6 +6150,14 @@
       <c r="M41" s="18">
         <v>2.9718473121164779</v>
       </c>
+      <c r="O41" s="6">
+        <f>MIN(K4:K34)</f>
+        <v>2.1618432146549562</v>
+      </c>
+      <c r="P41" s="6">
+        <f>MIN(P4:P34)</f>
+        <v>2.9718473121164779</v>
+      </c>
       <c r="S41" t="s">
         <v>10</v>
       </c>
@@ -6053,6 +6185,14 @@
       </c>
       <c r="L42" s="19"/>
       <c r="M42" s="19">
+        <v>282.82020578332532</v>
+      </c>
+      <c r="O42" s="6">
+        <f>MAX(K4:K34)</f>
+        <v>282.82020578332532</v>
+      </c>
+      <c r="P42" s="6">
+        <f>MAX(P4:P34)</f>
         <v>282.82020578332532</v>
       </c>
       <c r="S42" t="s">
@@ -6075,7 +6215,7 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="F44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H44" s="6"/>
       <c r="J44" s="6"/>
@@ -6089,7 +6229,7 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.3">
       <c r="F45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S45" t="s">
         <v>12</v>
@@ -6126,7 +6266,10 @@
   <sortState ref="AF17:AF36">
     <sortCondition ref="AF17"/>
   </sortState>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="P36:P37"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="O36:O37"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="J36:K36"/>
